--- a/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st01.xlsx
@@ -2864,7 +2864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It needs an "and then" in there.
+    <t xml:space="preserve">It needs an 'and then' in there.
 </t>
   </si>
   <si>
@@ -2884,27 +2884,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"District 14 reporting, all clear."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"District 5 reporting, situation normal."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"District 1 reporting, nothing out of the ordinary."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Green across the board. Good work, everyone. Stay on your toes."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Roger."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Understood."
+    <t xml:space="preserve">'District 14 reporting, all clear.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'District 5 reporting, situation normal.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'District 1 reporting, nothing out of the ordinary.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Green across the board. Good work, everyone. Stay on your toes.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Roger.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Understood.'
 </t>
   </si>
   <si>
@@ -2924,7 +2924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Serious L.G.D. Officer"]   ..."Suspected Originium explosive device activation"? What is it? Somebody shooting off fireworks in the park?
+    <t xml:space="preserve">[name="Serious L.G.D. Officer"]   ...'Suspected Originium explosive device activation'? What is it? Somebody shooting off fireworks in the park?
 </t>
   </si>
   <si>
@@ -2952,7 +2952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frivolous L.G.D. Officer"]   I've never seen the "Nian" before. What is it?
+    <t xml:space="preserve">[name="Frivolous L.G.D. Officer"]   I've never seen the 'Nian' before. What is it?
 </t>
   </si>
   <si>
@@ -3112,7 +3112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Snowsant"]   My grandma told me stories about the "Nian" when I was little... But they were so scary I never thought they could be true...
+    <t xml:space="preserve">[name="Snowsant"]   My grandma told me stories about the 'Nian' when I was little... But they were so scary I never thought they could be true...
 </t>
   </si>
   <si>
@@ -3428,7 +3428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]   Obstruction of justice, destruction of public property, trespassing, disturbing the peace, assault. You made a lot of noise last year, "Madame Oni."
+    <t xml:space="preserve">[name="Ch'en"]   Obstruction of justice, destruction of public property, trespassing, disturbing the peace, assault. You made a lot of noise last year, 'Madame Oni.'
 </t>
   </si>
   <si>
@@ -3504,7 +3504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Madame Oni"]   "This year's special circumstances..." You know what I mean, Ch'en Sir?
+    <t xml:space="preserve">[name="Madame Oni"]   'This year's special circumstances...' You know what I mean, Ch'en Sir?
 </t>
   </si>
   <si>
@@ -3764,11 +3764,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="To \"ring in the New Year,\" right?;What's this \"Nian\" anyway?;......",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]   The "Nian" is a legend... or so they say.
+    <t xml:space="preserve">[Decision(options="To 'ring in the New Year,' right?;What's this 'Nian' anyway?;......",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]   The 'Nian' is a legend... or so they say.
 </t>
   </si>
   <si>
@@ -3792,7 +3792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   There's even a conspiracy theory floating around that some organized crime syndicate or other shadowy group fabricated the whole "Nian" thing to cover up their activities...
+    <t xml:space="preserve">[name="Amiya"]   There's even a conspiracy theory floating around that some organized crime syndicate or other shadowy group fabricated the whole 'Nian' thing to cover up their activities...
 </t>
   </si>
   <si>
@@ -3844,7 +3844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Madame Oni"]   What ngaang gaau "get-togethers" are you talking about... bullshit... ugh...
+    <t xml:space="preserve">[name="Madame Oni"]   What ngaang gaau 'get-togethers' are you talking about... bullshit... ugh...
 </t>
   </si>
   <si>
@@ -3900,7 +3900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]   When she wakes up, you tell her, the L.G.D. got a lead on the "Nian."
+    <t xml:space="preserve">[name="Ch'en"]   When she wakes up, you tell her, the L.G.D. got a lead on the 'Nian.'
 </t>
   </si>
   <si>
@@ -4028,7 +4028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Serious L.G.D. Officer"]   ..."Tales of the Nian: A Compilation of Catastrophes from Several Countries"?
+    <t xml:space="preserve">[name="Serious L.G.D. Officer"]   ...'Tales of the Nian: A Compilation of Catastrophes from Several Countries'?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st01.xlsx
@@ -2876,7 +2876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">11:15 PM \ Clear
+    <t xml:space="preserve">11:15 P.M. \ Clear
 </t>
   </si>
   <si>
